--- a/MainTop/12.08.2024/2недели Таня с 30.07.2024 по 12.08.2024/fix.xlsx
+++ b/MainTop/12.08.2024/2недели Таня с 30.07.2024 по 12.08.2024/fix.xlsx
@@ -428,8 +428,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H88" activeCellId="0" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2932,6 +2932,12 @@
       </c>
       <c r="I86" s="0" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H87" s="0" t="n">
+        <f aca="false">SUM(H2:H86)</f>
+        <v>380</v>
       </c>
     </row>
     <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
